--- a/biology/Botanique/Croc_à_fumier/Croc_à_fumier.xlsx
+++ b/biology/Botanique/Croc_à_fumier/Croc_à_fumier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Croc_%C3%A0_fumier</t>
+          <t>Croc_à_fumier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le croc à fumier est un outil de jardinage qui est une sorte de fourche recourbée, une griffe de jardin à quatre dents[1]. Le croc à fumier sert à aplanir le sol après le bêchage ou le labour[2].  
-Il était utilisé pour épandre le fumier et faisait partie de l'outillage agricole de base, par exemple au Canada[3]. 
-Le terme a aussi un autre sens. Selon le Dictionnaire du monde rural[4] de Marcel Lachiver, le croc à fumier était un « instrument de fer forgé dont l'une des extrémités est munie d'un œilleton de traction servant de crochet d'attelage, l'autre de deux fortes griffes. Il servait à sortir le fumier des étables et, le plus souvent, on y attelait le taureau. On s'en servait aussi pour arracher le foin des greniers. »[5]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le croc à fumier est un outil de jardinage qui est une sorte de fourche recourbée, une griffe de jardin à quatre dents. Le croc à fumier sert à aplanir le sol après le bêchage ou le labour.  
+Il était utilisé pour épandre le fumier et faisait partie de l'outillage agricole de base, par exemple au Canada. 
+Le terme a aussi un autre sens. Selon le Dictionnaire du monde rural de Marcel Lachiver, le croc à fumier était un « instrument de fer forgé dont l'une des extrémités est munie d'un œilleton de traction servant de crochet d'attelage, l'autre de deux fortes griffes. Il servait à sortir le fumier des étables et, le plus souvent, on y attelait le taureau. On s'en servait aussi pour arracher le foin des greniers. »
 </t>
         </is>
       </c>
